--- a/data/trans_dic/P56$auxiliar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +730,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 67,88</t>
+          <t>9,96; 61,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 40,48</t>
+          <t>4,41; 39,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,58; 54,87</t>
+          <t>24,56; 54,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 33,49</t>
+          <t>9,24; 32,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 23,36</t>
+          <t>2,84; 23,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,08; 43,74</t>
+          <t>28,04; 43,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 34,65</t>
+          <t>11,42; 32,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 22,34</t>
+          <t>5,12; 23,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,03; 42,64</t>
+          <t>29,06; 42,83</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 30,87</t>
+          <t>3,38; 29,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 41,08</t>
+          <t>14,38; 40,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,09</t>
+          <t>0,0; 19,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 31,64</t>
+          <t>11,24; 31,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 23,58</t>
+          <t>2,91; 22,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 38,13</t>
+          <t>22,73; 37,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,14</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 26,79</t>
+          <t>11,22; 26,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 16,7</t>
+          <t>1,95; 16,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,69; 35,93</t>
+          <t>22,49; 36,7</t>
         </is>
       </c>
     </row>
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,67</t>
+          <t>0,0; 23,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 35,91</t>
+          <t>3,71; 35,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,72</t>
+          <t>0,0; 26,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 35,28</t>
+          <t>9,76; 33,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,17</t>
+          <t>0,0; 25,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 33,15</t>
+          <t>14,03; 33,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,68</t>
+          <t>0,0; 23,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 26,78</t>
+          <t>7,34; 25,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 18,68</t>
+          <t>1,58; 19,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,25; 29,75</t>
+          <t>13,12; 28,93</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,91</t>
+          <t>0,0; 26,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 21,05</t>
+          <t>3,19; 20,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 27,93</t>
+          <t>3,64; 28,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 32,79</t>
+          <t>10,06; 31,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,52</t>
+          <t>0,0; 11,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 29,14</t>
+          <t>16,13; 29,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 23,9</t>
+          <t>2,58; 21,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 26,1</t>
+          <t>8,23; 25,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,39</t>
+          <t>0,0; 9,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 24,61</t>
+          <t>13,54; 24,43</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,26</t>
+          <t>5,28; 20,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,04</t>
+          <t>2,28; 13,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,47; 29,1</t>
+          <t>15,82; 28,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,87</t>
+          <t>3,15; 13,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,81</t>
+          <t>14,74; 26,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,22</t>
+          <t>3,52; 12,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 31,79</t>
+          <t>23,79; 31,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,73</t>
+          <t>1,59; 8,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,07</t>
+          <t>13,32; 22,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,29</t>
+          <t>3,65; 10,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,35</t>
+          <t>22,5; 29,15</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3239</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9512</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21524</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11985</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31035</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1650</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1054; 6486</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>837; 7530</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6164; 13664</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4261; 15174</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1131; 9347</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17342; 26899</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6478; 18636</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3010; 13786</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25269; 37239</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4489</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6390</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13172</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20137</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17661</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1095; 9402</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3513; 10013</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5345</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7381; 20665</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1197; 9226</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15210; 25338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5398</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10999; 26391</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1179; 10071</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20539; 33523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8576</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2969</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9452</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8576</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12676</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1443</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4171</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>753; 7225</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4682</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4120; 14337</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8968</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5924; 14106</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4125; 14558</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>832; 10310</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8203; 18088</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10352</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17862</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11439</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20910</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1479</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1690</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1029; 6473</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1169; 9056</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5159; 16151</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6522</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12912; 23945</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1173; 9884</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5994; 18755</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6592</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15201; 27436</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68974</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>91148</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4144; 16088</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9814</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16150; 29283</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2942; 12902</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30252; 53940</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6053; 21681</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>59722; 79133</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2256; 12751</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>37799; 62918</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8909; 24568</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>79430; 102926</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>